--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a2cc363213c784da/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sensors_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32316" documentId="8_{FADF858F-188F-4AA7-AF9A-00A8EF520C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91A6603E-5EA1-49D4-87E1-F90392EDE53D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0DADFB9-434D-420F-91FF-4548CAC1E7E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="9420" activeTab="1" xr2:uid="{C756FC93-FDA1-454D-8F32-5155C651C34A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{C756FC93-FDA1-454D-8F32-5155C651C34A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7625" uniqueCount="1968">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7630" uniqueCount="1968">
   <si>
     <t>IR=1314, BPM=33.80, Avg BPM=78 No finger?</t>
   </si>
@@ -5946,9 +5946,6 @@
     <t>Newest first</t>
   </si>
   <si>
-    <t>8D6395BE-A886-4E9B-8019-4A19779BACC0</t>
-  </si>
-  <si>
     <t>Data In (From Silicon Labs CP210x USB to UART Bridge (COM5))</t>
   </si>
   <si>
@@ -5964,7 +5961,10 @@
     <t>Historical Data</t>
   </si>
   <si>
-    <t>{"Channels":[{"Description":null,"Id":null,"IsGhost":false,"Name":null,"Status":"Active","SubChannels":[{"Description":null,"Id":"CH1","IsGhost":false,"Name":"CH1","Status":"Active","SubChannels":[],"UnitOfMeasure":null},{"Description":null,"Id":"CH2","IsGhost":false,"Name":"CH2","Status":"Active","SubChannels":[],"UnitOfMeasure":null},{"Description":null,"Id":"CH3","IsGhost":false,"Name":"CH3","Status":"Active","SubChannels":[],"UnitOfMeasure":null},{"Description":null,"Id":"CH4","IsGhost":false,"Name":"CH4","Status":"Active","SubChannels":[],"UnitOfMeasure":null}],"UnitOfMeasure":null}],"Commands":[],"DataInterval":150,"Id":"8D6395BE-A886-4E9B-8019-4A19779BACC0","IsGenerated":true,"Name":"Silicon Labs CP210x USB to UART Bridge","Version":null,"BaudRate":115200}</t>
+    <t>A52CDFC6-E21A-4F8F-9425-0C7C9D64E267</t>
+  </si>
+  <si>
+    <t>{"Channels":[{"Description":null,"Id":null,"IsGhost":false,"Name":null,"Status":"Active","SubChannels":[{"Description":null,"Id":"CH1","IsGhost":false,"Name":"CH1","Status":"Active","SubChannels":[],"UnitOfMeasure":null},{"Description":null,"Id":"CH2","IsGhost":false,"Name":"CH2","Status":"Active","SubChannels":[],"UnitOfMeasure":null},{"Description":null,"Id":"CH3","IsGhost":false,"Name":"CH3","Status":"Active","SubChannels":[],"UnitOfMeasure":null},{"Description":null,"Id":"CH4","IsGhost":false,"Name":"CH4","Status":"Active","SubChannels":[],"UnitOfMeasure":null},{"Description":null,"Id":"CH5","IsGhost":false,"Name":"CH5","Status":"Active","SubChannels":[],"UnitOfMeasure":null}],"UnitOfMeasure":null}],"Commands":[],"DataInterval":150,"Id":"A52CDFC6-E21A-4F8F-9425-0C7C9D64E267","IsGenerated":true,"Name":"Silicon Labs CP210x USB to UART Bridge","Version":null,"BaudRate":115200}</t>
   </si>
 </sst>
 </file>
@@ -6373,7 +6373,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
@@ -6429,6 +6429,46 @@
       <alignment horizontal="right" vertical="center" indent="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="12" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="13" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -6459,15 +6499,14 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -6497,50 +6536,18 @@
     <xf numFmtId="0" fontId="14" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="12" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="13" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="16">
     <dxf>
       <font>
         <b val="0"/>
@@ -6564,6 +6571,44 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color rgb="FFBFBFBF"/>
+        </left>
+        <right style="hair">
+          <color rgb="FFBFBFBF"/>
+        </right>
+        <top style="hair">
+          <color rgb="FFBFBFBF"/>
+        </top>
+        <bottom style="hair">
+          <color rgb="FFBFBFBF"/>
+        </bottom>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF505050"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFCFCFC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="hair">
           <color rgb="FFBFBFBF"/>
@@ -6949,6 +6994,40 @@
         </patternFill>
       </fill>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color rgb="FFFFF2CC"/>
+        </left>
+        <right style="hair">
+          <color rgb="FFFFF2CC"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF505050"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFEA"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
@@ -6986,23 +7065,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Rectangle 7">
+        <xdr:cNvPr id="6" name="Rectangle 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3355FAD2-BB9D-FF8D-188B-BB44B87322BA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75384D49-FEA6-E480-9B47-4F537A326D76}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7010,7 +7089,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3970020" y="2049780"/>
+          <a:off x="4709160" y="2049780"/>
           <a:ext cx="609600" cy="243840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7076,45 +7155,45 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{26716241-69D4-4860-BB68-9D80F6ACFF72}" name="TBL_CUR" displayName="TBL_CUR" ref="A4:E5" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11">
-  <autoFilter ref="A4:E5" xr:uid="{26716241-69D4-4860-BB68-9D80F6ACFF72}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{26716241-69D4-4860-BB68-9D80F6ACFF72}" name="TBL_CUR" displayName="TBL_CUR" ref="A4:F5" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13">
+  <autoFilter ref="A4:F5" xr:uid="{26716241-69D4-4860-BB68-9D80F6ACFF72}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
     <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="5">
-    <tableColumn id="7" xr3:uid="{5FD2088B-CA31-4BD2-99DF-47D7D3160748}" name="TIME" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{0B711526-9929-4E2B-B18F-0633663A4288}" name="CH1" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{671A4669-DF83-4ADB-AF46-BE584F11529C}" name="CH2" dataDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{EFA81ECB-E0A1-4A26-96F5-71DCDC3E2380}" name="CH3" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{1C566BF3-FC25-443F-A70F-C074E4A39F47}" name="CH4" dataDxfId="8"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{BAC09FA4-4273-4C05-A913-42F86ADED7A7}" name="TIME" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{72734D2C-CC3D-4CE9-BB7D-D26DDBEBB154}" name="CH1" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{C53976C7-FDEA-45EB-BA8A-3387DA1BC1E3}" name="CH2" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{175A402D-96C7-4908-BE9B-0190D1BB71B4}" name="CH3" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{B18CFE3E-B8D2-4A7A-A17F-5C42E8BE736E}" name="CH4" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{2DD74144-038D-4A55-930C-4B457DB1445B}" name="CH5" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="Invisible" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FDB81772-56E5-4421-83D1-F9E172F36559}" name="TBL_HST" displayName="TBL_HST" ref="A7:E27" totalsRowShown="0" headerRowDxfId="12" dataDxfId="5">
-  <autoFilter ref="A7:E27" xr:uid="{FDB81772-56E5-4421-83D1-F9E172F36559}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FDB81772-56E5-4421-83D1-F9E172F36559}" name="TBL_HST" displayName="TBL_HST" ref="A7:F37" totalsRowShown="0" headerRowDxfId="14" dataDxfId="6">
+  <autoFilter ref="A7:F37" xr:uid="{FDB81772-56E5-4421-83D1-F9E172F36559}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
     <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="5">
-    <tableColumn id="7" xr3:uid="{BC0590EB-F677-4699-A208-0957BD72C994}" name="TIME" dataDxfId="0"/>
-    <tableColumn id="8" xr3:uid="{39B2FBF3-67B5-45D5-9A6C-DA75BE89DA6B}" name="CH1" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{C77754A3-5959-4A81-8BA9-E543A31564C8}" name="CH2" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{271E02E4-14DA-42B9-A7BF-F2E6A0FC0303}" name="CH3" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{C7C07E5B-E307-4498-8D59-48771530B2E1}" name="CH4" dataDxfId="2"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{AD22AB8D-1AB1-4C63-8F35-74AEA0D68510}" name="TIME" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{D6B726C2-330A-49C9-BC72-8DE0F7957681}" name="CH1" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{642321DF-D285-430E-B4A2-64525D53CDFF}" name="CH2" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{07C3C65E-C5DF-402D-A339-717DD6431E34}" name="CH3" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{25E2573B-B465-4EAA-9A9E-03F1318B4E2D}" name="CH4" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{DBFB0AAE-DE85-484B-B6A0-35511BC1B4AB}" name="CH5" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="Invisible" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7419,7 +7498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9627771D-2401-4997-8E08-383CB6F55089}">
   <dimension ref="D1:F2523"/>
   <sheetViews>
-    <sheetView topLeftCell="A163" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -35178,476 +35257,767 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB97E1B1-1631-438C-97D5-206EF8D4F85F}">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.77734375" style="25" customWidth="1"/>
-    <col min="2" max="5" width="10.77734375" style="25" customWidth="1"/>
-    <col min="6" max="6" width="16.77734375" style="25" customWidth="1"/>
-    <col min="7" max="12" width="8.88671875" style="25" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="25"/>
+    <col min="1" max="1" width="14.77734375" style="15" customWidth="1"/>
+    <col min="2" max="6" width="10.77734375" style="15" customWidth="1"/>
+    <col min="7" max="7" width="16.77734375" style="15" customWidth="1"/>
+    <col min="8" max="12" width="8.88671875" style="15" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="29.4" x14ac:dyDescent="0.65">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="25" t="s">
+        <v>1961</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+    </row>
+    <row r="2" spans="1:10" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
         <v>1962</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-    </row>
-    <row r="2" spans="1:10" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="36" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+    </row>
+    <row r="3" spans="1:10" ht="33.450000000000003" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="46" t="s">
         <v>1963</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-    </row>
-    <row r="3" spans="1:10" ht="33.450000000000003" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="37" t="s">
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
         <v>1964</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
+      <c r="B4" s="18" t="s">
+        <v>1939</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>1941</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>1942</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>1943</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="20">
+        <v>44869.709258287039</v>
+      </c>
+      <c r="B5" s="19">
+        <v>1268</v>
+      </c>
+      <c r="C5" s="19">
+        <v>20.18</v>
+      </c>
+      <c r="D5" s="19">
+        <v>97</v>
+      </c>
+      <c r="E5" s="19">
+        <v>147</v>
+      </c>
+      <c r="F5" s="19"/>
+    </row>
+    <row r="6" spans="1:10" ht="33.450000000000003" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="48" t="s">
         <v>1965</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+    </row>
+    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
+        <v>1964</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>1939</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C7" s="18" t="s">
         <v>1941</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D7" s="18" t="s">
         <v>1942</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E7" s="18" t="s">
         <v>1943</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="40">
-        <v>44869.691476053238</v>
-      </c>
-      <c r="B5" s="39">
-        <v>1116</v>
-      </c>
-      <c r="C5" s="39">
-        <v>71.510000000000005</v>
-      </c>
-      <c r="D5" s="39">
-        <v>54</v>
-      </c>
-      <c r="E5" s="39">
+      <c r="F7" s="18" t="s">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="23">
+        <v>44869.709258287039</v>
+      </c>
+      <c r="B8" s="24">
+        <v>1268</v>
+      </c>
+      <c r="C8" s="24">
+        <v>20.18</v>
+      </c>
+      <c r="D8" s="24">
+        <v>97</v>
+      </c>
+      <c r="E8" s="24">
         <v>147</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="33.450000000000003" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="41" t="s">
-        <v>1966</v>
-      </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-    </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="A7" s="38" t="s">
-        <v>1965</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>1939</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>1941</v>
-      </c>
-      <c r="D7" s="38" t="s">
-        <v>1942</v>
-      </c>
-      <c r="E7" s="38" t="s">
-        <v>1943</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="44">
-        <v>44869.691474803243</v>
-      </c>
-      <c r="B8" s="45">
-        <v>1128</v>
-      </c>
-      <c r="C8" s="45">
-        <v>71.510000000000005</v>
-      </c>
-      <c r="D8" s="45">
-        <v>54</v>
-      </c>
-      <c r="E8" s="45">
+      <c r="F8" s="24"/>
+    </row>
+    <row r="9" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="22">
+        <v>44869.709256967595</v>
+      </c>
+      <c r="B9" s="21">
+        <v>1275</v>
+      </c>
+      <c r="C9" s="21">
+        <v>20.18</v>
+      </c>
+      <c r="D9" s="21">
+        <v>97</v>
+      </c>
+      <c r="E9" s="21">
         <v>147</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="43">
-        <v>44869.691473391205</v>
-      </c>
-      <c r="B9" s="42">
-        <v>1113</v>
-      </c>
-      <c r="C9" s="42">
-        <v>71.510000000000005</v>
-      </c>
-      <c r="D9" s="42">
-        <v>54</v>
-      </c>
-      <c r="E9" s="42">
+      <c r="F9" s="21"/>
+    </row>
+    <row r="10" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="22">
+        <v>44869.709255682872</v>
+      </c>
+      <c r="B10" s="21">
+        <v>1286</v>
+      </c>
+      <c r="C10" s="21">
+        <v>20.18</v>
+      </c>
+      <c r="D10" s="21">
+        <v>97</v>
+      </c>
+      <c r="E10" s="21">
         <v>147</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="43">
-        <v>44869.691471967591</v>
-      </c>
-      <c r="B10" s="42">
-        <v>1125</v>
-      </c>
-      <c r="C10" s="42">
-        <v>71.510000000000005</v>
-      </c>
-      <c r="D10" s="42">
-        <v>54</v>
-      </c>
-      <c r="E10" s="42">
+      <c r="F10" s="21"/>
+    </row>
+    <row r="11" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="22">
+        <v>44869.709254317131</v>
+      </c>
+      <c r="B11" s="21">
+        <v>1265</v>
+      </c>
+      <c r="C11" s="21">
+        <v>20.18</v>
+      </c>
+      <c r="D11" s="21">
+        <v>97</v>
+      </c>
+      <c r="E11" s="21">
         <v>147</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="43">
-        <v>44869.691470682868</v>
-      </c>
-      <c r="B11" s="42">
-        <v>1119</v>
-      </c>
-      <c r="C11" s="42">
-        <v>71.510000000000005</v>
-      </c>
-      <c r="D11" s="42">
-        <v>54</v>
-      </c>
-      <c r="E11" s="42">
+      <c r="F11" s="21"/>
+    </row>
+    <row r="12" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="22">
+        <v>44869.709253009256</v>
+      </c>
+      <c r="B12" s="21">
+        <v>1276</v>
+      </c>
+      <c r="C12" s="21">
+        <v>20.18</v>
+      </c>
+      <c r="D12" s="21">
+        <v>97</v>
+      </c>
+      <c r="E12" s="21">
         <v>147</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="43">
-        <v>44869.691469398145</v>
-      </c>
-      <c r="B12" s="42">
-        <v>1115</v>
-      </c>
-      <c r="C12" s="42">
-        <v>71.510000000000005</v>
-      </c>
-      <c r="D12" s="42">
-        <v>54</v>
-      </c>
-      <c r="E12" s="42">
+      <c r="F12" s="21"/>
+    </row>
+    <row r="13" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="22">
+        <v>44869.709251689812</v>
+      </c>
+      <c r="B13" s="21">
+        <v>1266</v>
+      </c>
+      <c r="C13" s="21">
+        <v>20.18</v>
+      </c>
+      <c r="D13" s="21">
+        <v>97</v>
+      </c>
+      <c r="E13" s="21">
         <v>147</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="43">
-        <v>44869.691468113429</v>
-      </c>
-      <c r="B13" s="42">
-        <v>1125</v>
-      </c>
-      <c r="C13" s="42">
-        <v>71.510000000000005</v>
-      </c>
-      <c r="D13" s="42">
-        <v>54</v>
-      </c>
-      <c r="E13" s="42">
+      <c r="F13" s="21"/>
+    </row>
+    <row r="14" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="22">
+        <v>44869.709250405096</v>
+      </c>
+      <c r="B14" s="21">
+        <v>1263</v>
+      </c>
+      <c r="C14" s="21">
+        <v>20.18</v>
+      </c>
+      <c r="D14" s="21">
+        <v>97</v>
+      </c>
+      <c r="E14" s="21">
         <v>147</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="43">
-        <v>44869.691466793978</v>
-      </c>
-      <c r="B14" s="42">
-        <v>1107</v>
-      </c>
-      <c r="C14" s="42">
-        <v>71.510000000000005</v>
-      </c>
-      <c r="D14" s="42">
-        <v>54</v>
-      </c>
-      <c r="E14" s="42">
+      <c r="F14" s="21"/>
+    </row>
+    <row r="15" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="22">
+        <v>44869.709249120373</v>
+      </c>
+      <c r="B15" s="21">
+        <v>1278</v>
+      </c>
+      <c r="C15" s="21">
+        <v>20.18</v>
+      </c>
+      <c r="D15" s="21">
+        <v>97</v>
+      </c>
+      <c r="E15" s="21">
         <v>147</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="43">
-        <v>44869.691465405092</v>
-      </c>
-      <c r="B15" s="42">
-        <v>1116</v>
-      </c>
-      <c r="C15" s="42">
-        <v>71.510000000000005</v>
-      </c>
-      <c r="D15" s="42">
-        <v>54</v>
-      </c>
-      <c r="E15" s="42">
+      <c r="F15" s="21"/>
+    </row>
+    <row r="16" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="22">
+        <v>44869.70924773148</v>
+      </c>
+      <c r="B16" s="21">
+        <v>1262</v>
+      </c>
+      <c r="C16" s="21">
+        <v>20.18</v>
+      </c>
+      <c r="D16" s="21">
+        <v>97</v>
+      </c>
+      <c r="E16" s="21">
         <v>147</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="43">
-        <v>44869.691464120369</v>
-      </c>
-      <c r="B16" s="42">
-        <v>1120</v>
-      </c>
-      <c r="C16" s="42">
-        <v>71.510000000000005</v>
-      </c>
-      <c r="D16" s="42">
-        <v>54</v>
-      </c>
-      <c r="E16" s="42">
+      <c r="F16" s="21"/>
+    </row>
+    <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="22">
+        <v>44869.709246446757</v>
+      </c>
+      <c r="B17" s="21">
+        <v>1270</v>
+      </c>
+      <c r="C17" s="21">
+        <v>20.18</v>
+      </c>
+      <c r="D17" s="21">
+        <v>97</v>
+      </c>
+      <c r="E17" s="21">
         <v>147</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="43">
-        <v>44869.691462835646</v>
-      </c>
-      <c r="B17" s="42">
-        <v>1107</v>
-      </c>
-      <c r="C17" s="42">
-        <v>71.510000000000005</v>
-      </c>
-      <c r="D17" s="42">
-        <v>54</v>
-      </c>
-      <c r="E17" s="42">
+      <c r="F17" s="21"/>
+    </row>
+    <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="22">
+        <v>44869.709245162034</v>
+      </c>
+      <c r="B18" s="21">
+        <v>1276</v>
+      </c>
+      <c r="C18" s="21">
+        <v>20.18</v>
+      </c>
+      <c r="D18" s="21">
+        <v>97</v>
+      </c>
+      <c r="E18" s="21">
         <v>147</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="43">
-        <v>44869.691461550923</v>
-      </c>
-      <c r="B18" s="42">
-        <v>1110</v>
-      </c>
-      <c r="C18" s="42">
-        <v>71.510000000000005</v>
-      </c>
-      <c r="D18" s="42">
-        <v>54</v>
-      </c>
-      <c r="E18" s="42">
+      <c r="F18" s="21"/>
+    </row>
+    <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="22">
+        <v>44869.70924384259</v>
+      </c>
+      <c r="B19" s="21">
+        <v>1275</v>
+      </c>
+      <c r="C19" s="21">
+        <v>20.18</v>
+      </c>
+      <c r="D19" s="21">
+        <v>97</v>
+      </c>
+      <c r="E19" s="21">
         <v>147</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="43">
-        <v>44869.691460231479</v>
-      </c>
-      <c r="B19" s="42">
-        <v>1115</v>
-      </c>
-      <c r="C19" s="42">
-        <v>71.510000000000005</v>
-      </c>
-      <c r="D19" s="42">
-        <v>54</v>
-      </c>
-      <c r="E19" s="42">
+      <c r="F19" s="21"/>
+    </row>
+    <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="22">
+        <v>44869.709242557874</v>
+      </c>
+      <c r="B20" s="21">
+        <v>1266</v>
+      </c>
+      <c r="C20" s="21">
+        <v>20.18</v>
+      </c>
+      <c r="D20" s="21">
+        <v>97</v>
+      </c>
+      <c r="E20" s="21">
         <v>147</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="43">
-        <v>44869.691458877314</v>
-      </c>
-      <c r="B20" s="42">
-        <v>1129</v>
-      </c>
-      <c r="C20" s="42">
-        <v>71.510000000000005</v>
-      </c>
-      <c r="D20" s="42">
-        <v>54</v>
-      </c>
-      <c r="E20" s="42">
+      <c r="F20" s="21"/>
+    </row>
+    <row r="21" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="22">
+        <v>44869.709241203702</v>
+      </c>
+      <c r="B21" s="21">
+        <v>1283</v>
+      </c>
+      <c r="C21" s="21">
+        <v>20.18</v>
+      </c>
+      <c r="D21" s="21">
+        <v>97</v>
+      </c>
+      <c r="E21" s="21">
         <v>147</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="43">
-        <v>44869.69145755787</v>
-      </c>
-      <c r="B21" s="42">
-        <v>1113</v>
-      </c>
-      <c r="C21" s="42">
-        <v>71.510000000000005</v>
-      </c>
-      <c r="D21" s="42">
-        <v>54</v>
-      </c>
-      <c r="E21" s="42">
+      <c r="F21" s="21"/>
+    </row>
+    <row r="22" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="22">
+        <v>44869.709239884258</v>
+      </c>
+      <c r="B22" s="21">
+        <v>1263</v>
+      </c>
+      <c r="C22" s="21">
+        <v>20.18</v>
+      </c>
+      <c r="D22" s="21">
+        <v>97</v>
+      </c>
+      <c r="E22" s="21">
         <v>147</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="43">
-        <v>44869.691456307868</v>
-      </c>
-      <c r="B22" s="42">
-        <v>1124</v>
-      </c>
-      <c r="C22" s="42">
-        <v>71.510000000000005</v>
-      </c>
-      <c r="D22" s="42">
-        <v>54</v>
-      </c>
-      <c r="E22" s="42">
+      <c r="F22" s="21"/>
+    </row>
+    <row r="23" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="22">
+        <v>44869.709238599535</v>
+      </c>
+      <c r="B23" s="21">
+        <v>1276</v>
+      </c>
+      <c r="C23" s="21">
+        <v>20.18</v>
+      </c>
+      <c r="D23" s="21">
+        <v>97</v>
+      </c>
+      <c r="E23" s="21">
         <v>147</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="43">
-        <v>44869.691454988424</v>
-      </c>
-      <c r="B23" s="42">
-        <v>1130</v>
-      </c>
-      <c r="C23" s="42">
-        <v>71.510000000000005</v>
-      </c>
-      <c r="D23" s="42">
-        <v>54</v>
-      </c>
-      <c r="E23" s="42">
+      <c r="F23" s="21"/>
+    </row>
+    <row r="24" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="22">
+        <v>44869.709237314812</v>
+      </c>
+      <c r="B24" s="21">
+        <v>1295</v>
+      </c>
+      <c r="C24" s="21">
+        <v>20.18</v>
+      </c>
+      <c r="D24" s="21">
+        <v>97</v>
+      </c>
+      <c r="E24" s="21">
         <v>147</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="43">
-        <v>44869.691453599538</v>
-      </c>
-      <c r="B24" s="42">
-        <v>1114</v>
-      </c>
-      <c r="C24" s="42">
-        <v>71.510000000000005</v>
-      </c>
-      <c r="D24" s="42">
-        <v>54</v>
-      </c>
-      <c r="E24" s="42">
+      <c r="F24" s="21"/>
+    </row>
+    <row r="25" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="22">
+        <v>44869.70923601852</v>
+      </c>
+      <c r="B25" s="21">
+        <v>1256</v>
+      </c>
+      <c r="C25" s="21">
+        <v>20.18</v>
+      </c>
+      <c r="D25" s="21">
+        <v>97</v>
+      </c>
+      <c r="E25" s="21">
         <v>147</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="43">
-        <v>44869.691452245374</v>
-      </c>
-      <c r="B25" s="42">
-        <v>1127</v>
-      </c>
-      <c r="C25" s="42">
-        <v>71.510000000000005</v>
-      </c>
-      <c r="D25" s="42">
-        <v>54</v>
-      </c>
-      <c r="E25" s="42">
+      <c r="F25" s="21"/>
+    </row>
+    <row r="26" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="22">
+        <v>44869.709234629627</v>
+      </c>
+      <c r="B26" s="21">
+        <v>1266</v>
+      </c>
+      <c r="C26" s="21">
+        <v>20.18</v>
+      </c>
+      <c r="D26" s="21">
+        <v>97</v>
+      </c>
+      <c r="E26" s="21">
         <v>147</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="43">
-        <v>44869.691450995371</v>
-      </c>
-      <c r="B26" s="42">
-        <v>1100</v>
-      </c>
-      <c r="C26" s="42">
-        <v>71.510000000000005</v>
-      </c>
-      <c r="D26" s="42">
-        <v>54</v>
-      </c>
-      <c r="E26" s="42">
+      <c r="F26" s="21"/>
+    </row>
+    <row r="27" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="22">
+        <v>44869.709233379632</v>
+      </c>
+      <c r="B27" s="21">
+        <v>1278</v>
+      </c>
+      <c r="C27" s="21">
+        <v>20.18</v>
+      </c>
+      <c r="D27" s="21">
+        <v>97</v>
+      </c>
+      <c r="E27" s="21">
         <v>147</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="43">
-        <v>44869.691449675927</v>
-      </c>
-      <c r="B27" s="42">
-        <v>1108</v>
-      </c>
-      <c r="C27" s="42">
-        <v>71.510000000000005</v>
-      </c>
-      <c r="D27" s="42">
-        <v>54</v>
-      </c>
-      <c r="E27" s="42">
+      <c r="F27" s="21"/>
+    </row>
+    <row r="28" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="22">
+        <v>44869.709232060188</v>
+      </c>
+      <c r="B28" s="21">
+        <v>1258</v>
+      </c>
+      <c r="C28" s="21">
+        <v>20.18</v>
+      </c>
+      <c r="D28" s="21">
+        <v>97</v>
+      </c>
+      <c r="E28" s="21">
         <v>147</v>
       </c>
+      <c r="F28" s="21"/>
+    </row>
+    <row r="29" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="22">
+        <v>44869.709230775465</v>
+      </c>
+      <c r="B29" s="21">
+        <v>1274</v>
+      </c>
+      <c r="C29" s="21">
+        <v>20.18</v>
+      </c>
+      <c r="D29" s="21">
+        <v>97</v>
+      </c>
+      <c r="E29" s="21">
+        <v>147</v>
+      </c>
+      <c r="F29" s="21"/>
+    </row>
+    <row r="30" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="22">
+        <v>44869.709229386572</v>
+      </c>
+      <c r="B30" s="21">
+        <v>1268</v>
+      </c>
+      <c r="C30" s="21">
+        <v>20.18</v>
+      </c>
+      <c r="D30" s="21">
+        <v>97</v>
+      </c>
+      <c r="E30" s="21">
+        <v>147</v>
+      </c>
+      <c r="F30" s="21"/>
+    </row>
+    <row r="31" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="22">
+        <v>44869.709228101849</v>
+      </c>
+      <c r="B31" s="21">
+        <v>1265</v>
+      </c>
+      <c r="C31" s="21">
+        <v>20.18</v>
+      </c>
+      <c r="D31" s="21">
+        <v>97</v>
+      </c>
+      <c r="E31" s="21">
+        <v>147</v>
+      </c>
+      <c r="F31" s="21"/>
+    </row>
+    <row r="32" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="22">
+        <v>44869.709226817133</v>
+      </c>
+      <c r="B32" s="21">
+        <v>1262</v>
+      </c>
+      <c r="C32" s="21">
+        <v>20.18</v>
+      </c>
+      <c r="D32" s="21">
+        <v>97</v>
+      </c>
+      <c r="E32" s="21">
+        <v>147</v>
+      </c>
+      <c r="F32" s="21"/>
+    </row>
+    <row r="33" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="22">
+        <v>44869.70922553241</v>
+      </c>
+      <c r="B33" s="21">
+        <v>1273</v>
+      </c>
+      <c r="C33" s="21">
+        <v>20.18</v>
+      </c>
+      <c r="D33" s="21">
+        <v>97</v>
+      </c>
+      <c r="E33" s="21">
+        <v>147</v>
+      </c>
+      <c r="F33" s="21"/>
+    </row>
+    <row r="34" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="22">
+        <v>44869.709224131948</v>
+      </c>
+      <c r="B34" s="21">
+        <v>1272</v>
+      </c>
+      <c r="C34" s="21">
+        <v>20.18</v>
+      </c>
+      <c r="D34" s="21">
+        <v>97</v>
+      </c>
+      <c r="E34" s="21">
+        <v>147</v>
+      </c>
+      <c r="F34" s="21"/>
+    </row>
+    <row r="35" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="22">
+        <v>44869.709222824073</v>
+      </c>
+      <c r="B35" s="21">
+        <v>1273</v>
+      </c>
+      <c r="C35" s="21">
+        <v>20.18</v>
+      </c>
+      <c r="D35" s="21">
+        <v>97</v>
+      </c>
+      <c r="E35" s="21">
+        <v>147</v>
+      </c>
+      <c r="F35" s="21"/>
+    </row>
+    <row r="36" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="22">
+        <v>44869.70922153935</v>
+      </c>
+      <c r="B36" s="21">
+        <v>1280</v>
+      </c>
+      <c r="C36" s="21">
+        <v>20.18</v>
+      </c>
+      <c r="D36" s="21">
+        <v>97</v>
+      </c>
+      <c r="E36" s="21">
+        <v>147</v>
+      </c>
+      <c r="F36" s="21"/>
+    </row>
+    <row r="37" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="22">
+        <v>44869.709220254626</v>
+      </c>
+      <c r="B37" s="21">
+        <v>1273</v>
+      </c>
+      <c r="C37" s="21">
+        <v>20.18</v>
+      </c>
+      <c r="D37" s="21">
+        <v>97</v>
+      </c>
+      <c r="E37" s="21">
+        <v>147</v>
+      </c>
+      <c r="F37" s="21"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="47"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="47"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="47"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="47"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="47"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="47"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="47"/>
+      <c r="B41" s="47"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="47"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="47"/>
+      <c r="B42" s="47"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="47"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="47"/>
+      <c r="B43" s="47"/>
+      <c r="C43" s="47"/>
+      <c r="D43" s="47"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="47"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="47"/>
+      <c r="B44" s="47"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="47"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="47"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="47"/>
+      <c r="B45" s="47"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="47"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="47"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="47"/>
+      <c r="B46" s="47"/>
+      <c r="C46" s="47"/>
+      <c r="D46" s="47"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="47"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="47"/>
+      <c r="B47" s="47"/>
+      <c r="C47" s="47"/>
+      <c r="D47" s="47"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="A6:F6"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A3:F3"/>
   </mergeCells>
-  <dataValidations count="10">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Time_x000d__x000a__x000d__x000a_TBL_CUR[TIME]" sqref="A5" xr:uid="{1D4596CD-7CB2-41F7-99B0-CE77101FE05D}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_CUR[CH1]" sqref="B5" xr:uid="{A512D905-119C-40AD-9270-8008ABE1D921}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_CUR[CH2]" sqref="C5" xr:uid="{60E0D978-779B-4633-8752-A8CC5F17B4B0}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_CUR[CH3]" sqref="D5" xr:uid="{A6412484-1BAA-4699-B0B6-203D7B76068A}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_CUR[CH4]" sqref="E5" xr:uid="{6CCA36C6-2E45-442A-BA0B-A83AED3B839A}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Time_x000d__x000a__x000d__x000a_TBL_HST[TIME]" sqref="A8:A27" xr:uid="{FBAE0C24-87CD-4D1C-AB69-403633493D40}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH1]" sqref="B8:B27" xr:uid="{7BBA8E18-C143-4F92-8B10-C710034AA037}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH2]" sqref="C8:C27" xr:uid="{1548F924-FB10-443E-A29F-5FEF8238EF29}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH3]" sqref="D8:D27" xr:uid="{CF16EF3C-8D64-4C25-96B6-B2B10DC2974B}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH4]" sqref="E8:E27" xr:uid="{D26F85EA-9B37-426E-A6B9-439530766BAE}"/>
+  <dataValidations count="12">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Time_x000d__x000a__x000d__x000a_TBL_CUR[TIME]" sqref="A5" xr:uid="{42850B1C-0284-44D7-AFED-A831C17B6591}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_CUR[CH1]" sqref="B5" xr:uid="{E5C2D926-1A45-48F9-BEDA-C71F5DA277C2}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_CUR[CH2]" sqref="C5" xr:uid="{7083C6EF-F413-41E0-A414-AE429382DCE9}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_CUR[CH3]" sqref="D5" xr:uid="{1A99B6F5-5C0E-4798-B9B2-1C26A134ECD9}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_CUR[CH4]" sqref="E5" xr:uid="{72378438-C6C6-40E5-9F30-6D34C1435968}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_CUR[CH5]" sqref="F5" xr:uid="{0F146601-91E8-4D11-B014-3B0A2D60E90C}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Time_x000d__x000a__x000d__x000a_TBL_HST[TIME]" sqref="A8:A37" xr:uid="{CC1F5357-E1C5-4E74-A377-2CCC44F5DC65}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH1]" sqref="B8:B37" xr:uid="{5B003C76-69B2-4F5B-B73A-624DF37E4FF6}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH2]" sqref="C8:C37" xr:uid="{83D21885-E1A4-49EB-853C-343C206D2551}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH3]" sqref="D8:D37" xr:uid="{55AAEEF5-0D5D-4B9C-BCCD-F591985A00AE}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH4]" sqref="E8:E37" xr:uid="{3FE4AFF1-5F12-42A4-AEED-C92A074B53B3}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH5]" sqref="F8:F37" xr:uid="{7E88CA74-D149-4D52-A8C5-52B18A8E8F55}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -35672,59 +36042,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="29.4" x14ac:dyDescent="0.65">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="27" t="s">
         <v>1958</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:10" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="28" t="s">
         <v>1959</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:10" ht="17.55" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="44" t="s">
         <v>1939</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="45" t="s">
         <v>1941</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="45" t="s">
         <v>1942</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="45" t="s">
         <v>1943</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="16" t="s">
         <v>1944</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="F4" s="17" t="s">
         <v>1945</v>
       </c>
-      <c r="G4" s="34" t="s">
+      <c r="G4" s="17" t="s">
         <v>1946</v>
       </c>
-      <c r="H4" s="34" t="s">
+      <c r="H4" s="17" t="s">
         <v>1947</v>
       </c>
-      <c r="I4" s="34" t="s">
+      <c r="I4" s="17" t="s">
         <v>1948</v>
       </c>
-      <c r="J4" s="34" t="s">
+      <c r="J4" s="17" t="s">
         <v>1949</v>
       </c>
     </row>
@@ -35754,7 +36124,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -35766,62 +36136,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="29.4" x14ac:dyDescent="0.65">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="29" t="s">
         <v>1950</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="30" t="s">
         <v>1951</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
     </row>
     <row r="3" spans="1:5" ht="4.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="43" t="s">
         <v>1952</v>
       </c>
       <c r="B4" s="12">
         <v>150</v>
       </c>
       <c r="C4" s="13">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="4.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="43" t="s">
         <v>1953</v>
       </c>
       <c r="B6" s="12">
         <v>15</v>
       </c>
       <c r="C6" s="13">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="4.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="43" t="s">
         <v>1954</v>
       </c>
       <c r="B8" s="12">
         <v>10</v>
       </c>
       <c r="C8" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="4.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="43" t="s">
         <v>1955</v>
       </c>
       <c r="B10" s="12" t="s">
@@ -35832,13 +36202,13 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="31" t="s">
         <v>1957</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -35847,19 +36217,19 @@
     <mergeCell ref="A13:E13"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value must be from 10 to 1000" prompt="Minimum duration between data readings, in milliseconds. 10 to 1000" sqref="C4" xr:uid="{670BBC60-C9A5-4557-A2E7-0CA9516C613D}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value must be from 10 to 1000" prompt="Minimum duration between data readings, in milliseconds. 10 to 1000" sqref="C4" xr:uid="{F8AC74C0-69B1-4832-A146-E988016CA813}">
       <formula1>10</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value must be from 1 to 1000000" prompt="Number of historical data rows to keep. 1 to 1000000" sqref="C6" xr:uid="{D94DF882-1D29-4CF2-8202-9984799BDD37}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value must be from 1 to 1000000" prompt="Number of historical data rows to keep. 1 to 1000000" sqref="C6" xr:uid="{855DA42E-1BFC-40E8-8627-936BF0FE56E5}">
       <formula1>1</formula1>
       <formula2>1000000</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value must be from 1 to 1000" prompt="Number of data columns to read. 1 to 1000" sqref="C8" xr:uid="{AB84E036-63EC-480F-9BF1-1390238443D4}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value must be from 1 to 1000" prompt="Number of data columns to read. 1 to 1000" sqref="C8" xr:uid="{F7EBE1A5-4786-4D1A-914D-ABE5AF9EA52C}">
       <formula1>1</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" sqref="C10" xr:uid="{990A4164-7022-4B24-A742-8089774572EB}">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" sqref="C10" xr:uid="{318076FB-9039-4889-A381-0AC16A7B5914}">
       <formula1>"Newest first,Newest last"</formula1>
     </dataValidation>
   </dataValidations>
@@ -35890,55 +36260,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="29.4" x14ac:dyDescent="0.65">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="32" t="s">
         <v>1932</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="L1" s="26" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="L1" s="37" t="s">
         <v>1967</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="33" t="s">
         <v>1933</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
     </row>
     <row r="3" spans="1:12" ht="25.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="35" t="s">
         <v>1928</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
     </row>
     <row r="4" spans="1:12" ht="25.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="I4" s="27" t="s">
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="I4" s="38" t="s">
         <v>1929</v>
       </c>
-      <c r="J4" s="27"/>
+      <c r="J4" s="38"/>
     </row>
     <row r="5" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="30"/>
+      <c r="B5" s="41"/>
       <c r="C5" s="2" t="s">
         <v>1934</v>
       </c>
@@ -35954,17 +36324,17 @@
       <c r="G5" s="2" t="s">
         <v>1938</v>
       </c>
-      <c r="I5" s="28" t="s">
-        <v>1961</v>
-      </c>
-      <c r="J5" s="28"/>
-      <c r="K5" s="26">
+      <c r="I5" s="39" t="s">
+        <v>1966</v>
+      </c>
+      <c r="J5" s="39"/>
+      <c r="K5" s="37">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="30"/>
-      <c r="C6" s="31" t="s">
+      <c r="B6" s="41"/>
+      <c r="C6" s="42" t="s">
         <v>1939</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -35975,13 +36345,13 @@
       <c r="G6" s="3" t="s">
         <v>1940</v>
       </c>
-      <c r="I6" s="27" t="s">
+      <c r="I6" s="38" t="s">
         <v>1930</v>
       </c>
-      <c r="J6" s="27"/>
+      <c r="J6" s="38"/>
     </row>
     <row r="7" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="30"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="6" t="s">
         <v>1941</v>
       </c>
@@ -35993,12 +36363,12 @@
       <c r="G7" s="5" t="s">
         <v>1940</v>
       </c>
-      <c r="I7" s="29">
+      <c r="I7" s="40">
         <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="30"/>
+      <c r="B8" s="41"/>
       <c r="C8" s="6" t="s">
         <v>1942</v>
       </c>
@@ -36010,30 +36380,43 @@
       <c r="G8" s="5" t="s">
         <v>1940</v>
       </c>
-      <c r="I8" s="27" t="s">
+      <c r="I8" s="38" t="s">
         <v>1931</v>
       </c>
-      <c r="J8" s="27"/>
-    </row>
-    <row r="9" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="23"/>
-      <c r="C9" s="8" t="s">
+      <c r="J8" s="38"/>
+    </row>
+    <row r="9" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="41"/>
+      <c r="C9" s="6" t="s">
         <v>1943</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="7" t="s">
         <v>1943</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10" t="s">
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="5" t="s">
         <v>1940</v>
       </c>
-      <c r="I9" s="29">
+      <c r="I9" s="40">
         <v>115200</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="36"/>
+      <c r="C10" s="8" t="s">
+        <v>1944</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>1944</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="10" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -36048,7 +36431,7 @@
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="B5:B10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sensors_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0DADFB9-434D-420F-91FF-4548CAC1E7E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26FFD7A5-C424-49F8-911E-4D545996D0A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{C756FC93-FDA1-454D-8F32-5155C651C34A}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7630" uniqueCount="1968">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7655" uniqueCount="1968">
   <si>
     <t>IR=1314, BPM=33.80, Avg BPM=78 No finger?</t>
   </si>
@@ -5961,10 +5961,10 @@
     <t>Historical Data</t>
   </si>
   <si>
-    <t>A52CDFC6-E21A-4F8F-9425-0C7C9D64E267</t>
-  </si>
-  <si>
-    <t>{"Channels":[{"Description":null,"Id":null,"IsGhost":false,"Name":null,"Status":"Active","SubChannels":[{"Description":null,"Id":"CH1","IsGhost":false,"Name":"CH1","Status":"Active","SubChannels":[],"UnitOfMeasure":null},{"Description":null,"Id":"CH2","IsGhost":false,"Name":"CH2","Status":"Active","SubChannels":[],"UnitOfMeasure":null},{"Description":null,"Id":"CH3","IsGhost":false,"Name":"CH3","Status":"Active","SubChannels":[],"UnitOfMeasure":null},{"Description":null,"Id":"CH4","IsGhost":false,"Name":"CH4","Status":"Active","SubChannels":[],"UnitOfMeasure":null},{"Description":null,"Id":"CH5","IsGhost":false,"Name":"CH5","Status":"Active","SubChannels":[],"UnitOfMeasure":null}],"UnitOfMeasure":null}],"Commands":[],"DataInterval":150,"Id":"A52CDFC6-E21A-4F8F-9425-0C7C9D64E267","IsGenerated":true,"Name":"Silicon Labs CP210x USB to UART Bridge","Version":null,"BaudRate":115200}</t>
+    <t>78692026-BE11-416F-8E8F-5D469F4E591C</t>
+  </si>
+  <si>
+    <t>{"Channels":[{"Description":null,"Id":null,"IsGhost":false,"Name":null,"Status":"Active","SubChannels":[{"Description":null,"Id":"CH1","IsGhost":false,"Name":"CH1","Status":"Active","SubChannels":[],"UnitOfMeasure":null},{"Description":null,"Id":"CH2","IsGhost":false,"Name":"CH2","Status":"Active","SubChannels":[],"UnitOfMeasure":null},{"Description":null,"Id":"CH3","IsGhost":false,"Name":"CH3","Status":"Active","SubChannels":[],"UnitOfMeasure":null},{"Description":null,"Id":"CH4","IsGhost":false,"Name":"CH4","Status":"Active","SubChannels":[],"UnitOfMeasure":null},{"Description":null,"Id":"CH5","IsGhost":false,"Name":"CH5","Status":"Active","SubChannels":[],"UnitOfMeasure":null},{"Description":null,"Id":"CH6","IsGhost":false,"Name":"CH6","Status":"Active","SubChannels":[],"UnitOfMeasure":null},{"Description":null,"Id":"CH7","IsGhost":false,"Name":"CH7","Status":"Active","SubChannels":[],"UnitOfMeasure":null},{"Description":null,"Id":"CH8","IsGhost":false,"Name":"CH8","Status":"Active","SubChannels":[],"UnitOfMeasure":null},{"Description":null,"Id":"CH9","IsGhost":false,"Name":"CH9","Status":"Active","SubChannels":[],"UnitOfMeasure":null},{"Description":null,"Id":"CH10","IsGhost":false,"Name":"CH10","Status":"Active","SubChannels":[],"UnitOfMeasure":null}],"UnitOfMeasure":null}],"Commands":[],"DataInterval":150,"Id":"78692026-BE11-416F-8E8F-5D469F4E591C","IsGenerated":true,"Name":"Silicon Labs CP210x USB to UART Bridge","Version":null,"BaudRate":115200}</t>
   </si>
 </sst>
 </file>
@@ -6373,7 +6373,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
@@ -6539,7 +6539,6 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -6547,7 +6546,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="26">
     <dxf>
       <font>
         <b val="0"/>
@@ -6571,6 +6570,196 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color rgb="FFBFBFBF"/>
+        </left>
+        <right style="hair">
+          <color rgb="FFBFBFBF"/>
+        </right>
+        <top style="hair">
+          <color rgb="FFBFBFBF"/>
+        </top>
+        <bottom style="hair">
+          <color rgb="FFBFBFBF"/>
+        </bottom>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF505050"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFCFCFC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color rgb="FFBFBFBF"/>
+        </left>
+        <right style="hair">
+          <color rgb="FFBFBFBF"/>
+        </right>
+        <top style="hair">
+          <color rgb="FFBFBFBF"/>
+        </top>
+        <bottom style="hair">
+          <color rgb="FFBFBFBF"/>
+        </bottom>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF505050"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFCFCFC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color rgb="FFBFBFBF"/>
+        </left>
+        <right style="hair">
+          <color rgb="FFBFBFBF"/>
+        </right>
+        <top style="hair">
+          <color rgb="FFBFBFBF"/>
+        </top>
+        <bottom style="hair">
+          <color rgb="FFBFBFBF"/>
+        </bottom>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF505050"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFCFCFC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color rgb="FFBFBFBF"/>
+        </left>
+        <right style="hair">
+          <color rgb="FFBFBFBF"/>
+        </right>
+        <top style="hair">
+          <color rgb="FFBFBFBF"/>
+        </top>
+        <bottom style="hair">
+          <color rgb="FFBFBFBF"/>
+        </bottom>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF505050"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFCFCFC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color rgb="FFBFBFBF"/>
+        </left>
+        <right style="hair">
+          <color rgb="FFBFBFBF"/>
+        </right>
+        <top style="hair">
+          <color rgb="FFBFBFBF"/>
+        </top>
+        <bottom style="hair">
+          <color rgb="FFBFBFBF"/>
+        </bottom>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF505050"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFCFCFC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="hair">
           <color rgb="FFBFBFBF"/>
@@ -7028,6 +7217,176 @@
         </patternFill>
       </fill>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color rgb="FFFFF2CC"/>
+        </left>
+        <right style="hair">
+          <color rgb="FFFFF2CC"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF505050"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFEA"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color rgb="FFFFF2CC"/>
+        </left>
+        <right style="hair">
+          <color rgb="FFFFF2CC"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF505050"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFEA"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color rgb="FFFFF2CC"/>
+        </left>
+        <right style="hair">
+          <color rgb="FFFFF2CC"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF505050"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFEA"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color rgb="FFFFF2CC"/>
+        </left>
+        <right style="hair">
+          <color rgb="FFFFF2CC"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF505050"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFEA"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color rgb="FFFFF2CC"/>
+        </left>
+        <right style="hair">
+          <color rgb="FFFFF2CC"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF505050"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFEA"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
@@ -7065,23 +7424,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Rectangle 5">
+        <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75384D49-FEA6-E480-9B47-4F537A326D76}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98C50F35-EFD7-2264-970B-AE74094FBBAC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7089,7 +7448,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4709160" y="2049780"/>
+          <a:off x="8404860" y="2049780"/>
           <a:ext cx="609600" cy="243840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7156,44 +7515,64 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{26716241-69D4-4860-BB68-9D80F6ACFF72}" name="TBL_CUR" displayName="TBL_CUR" ref="A4:F5" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13">
-  <autoFilter ref="A4:F5" xr:uid="{26716241-69D4-4860-BB68-9D80F6ACFF72}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{26716241-69D4-4860-BB68-9D80F6ACFF72}" name="TBL_CUR" displayName="TBL_CUR" ref="A4:K5" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23">
+  <autoFilter ref="A4:K5" xr:uid="{26716241-69D4-4860-BB68-9D80F6ACFF72}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
     <filterColumn colId="4" hiddenButton="1"/>
     <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+    <filterColumn colId="7" hiddenButton="1"/>
+    <filterColumn colId="8" hiddenButton="1"/>
+    <filterColumn colId="9" hiddenButton="1"/>
+    <filterColumn colId="10" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{BAC09FA4-4273-4C05-A913-42F86ADED7A7}" name="TIME" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{72734D2C-CC3D-4CE9-BB7D-D26DDBEBB154}" name="CH1" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{C53976C7-FDEA-45EB-BA8A-3387DA1BC1E3}" name="CH2" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{175A402D-96C7-4908-BE9B-0190D1BB71B4}" name="CH3" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{B18CFE3E-B8D2-4A7A-A17F-5C42E8BE736E}" name="CH4" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{2DD74144-038D-4A55-930C-4B457DB1445B}" name="CH5" dataDxfId="9"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{BAC09FA4-4273-4C05-A913-42F86ADED7A7}" name="TIME" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{72734D2C-CC3D-4CE9-BB7D-D26DDBEBB154}" name="CH1" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{C53976C7-FDEA-45EB-BA8A-3387DA1BC1E3}" name="CH2" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{175A402D-96C7-4908-BE9B-0190D1BB71B4}" name="CH3" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{B18CFE3E-B8D2-4A7A-A17F-5C42E8BE736E}" name="CH4" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{2DD74144-038D-4A55-930C-4B457DB1445B}" name="CH5" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{AAD93644-D85E-43BA-A132-1F0F2E99E16E}" name="CH6" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{DCD406B2-4347-4918-8B8A-589A6C2D387F}" name="CH7" dataDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{2D36376E-1EAF-46D6-924F-B3F073513671}" name="CH8" dataDxfId="16"/>
+    <tableColumn id="10" xr3:uid="{F5DE6985-7F3D-4770-9843-407E68C9DA21}" name="CH9" dataDxfId="15"/>
+    <tableColumn id="11" xr3:uid="{695B89B1-C12F-4809-B555-2EB005D0295E}" name="CH10" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="Invisible" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FDB81772-56E5-4421-83D1-F9E172F36559}" name="TBL_HST" displayName="TBL_HST" ref="A7:F37" totalsRowShown="0" headerRowDxfId="14" dataDxfId="6">
-  <autoFilter ref="A7:F37" xr:uid="{FDB81772-56E5-4421-83D1-F9E172F36559}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FDB81772-56E5-4421-83D1-F9E172F36559}" name="TBL_HST" displayName="TBL_HST" ref="A7:K37" totalsRowShown="0" headerRowDxfId="24" dataDxfId="11">
+  <autoFilter ref="A7:K37" xr:uid="{FDB81772-56E5-4421-83D1-F9E172F36559}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
     <filterColumn colId="4" hiddenButton="1"/>
     <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+    <filterColumn colId="7" hiddenButton="1"/>
+    <filterColumn colId="8" hiddenButton="1"/>
+    <filterColumn colId="9" hiddenButton="1"/>
+    <filterColumn colId="10" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="6">
+  <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{AD22AB8D-1AB1-4C63-8F35-74AEA0D68510}" name="TIME" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{D6B726C2-330A-49C9-BC72-8DE0F7957681}" name="CH1" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{642321DF-D285-430E-B4A2-64525D53CDFF}" name="CH2" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{07C3C65E-C5DF-402D-A339-717DD6431E34}" name="CH3" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{25E2573B-B465-4EAA-9A9E-03F1318B4E2D}" name="CH4" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{DBFB0AAE-DE85-484B-B6A0-35511BC1B4AB}" name="CH5" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{642321DF-D285-430E-B4A2-64525D53CDFF}" name="CH2" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{07C3C65E-C5DF-402D-A339-717DD6431E34}" name="CH3" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{25E2573B-B465-4EAA-9A9E-03F1318B4E2D}" name="CH4" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{DBFB0AAE-DE85-484B-B6A0-35511BC1B4AB}" name="CH5" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{9BA64705-561F-466E-A340-ABF485DC4CCE}" name="CH6" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{FE7333D8-76FA-4FF3-B8F6-DE3D2CEE0869}" name="CH7" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{4C543E08-AC71-481C-BB9E-432A029480D5}" name="CH8" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{E56763CB-6A5A-413F-9744-1EB18BAFA95F}" name="CH9" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{2EED8450-5C4E-48AC-AB82-930D5BB1D791}" name="CH10" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="Invisible" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7498,7 +7877,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9627771D-2401-4997-8E08-383CB6F55089}">
   <dimension ref="D1:F2523"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -35257,22 +35636,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB97E1B1-1631-438C-97D5-206EF8D4F85F}">
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:K3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.77734375" style="15" customWidth="1"/>
-    <col min="2" max="6" width="10.77734375" style="15" customWidth="1"/>
-    <col min="7" max="7" width="16.77734375" style="15" customWidth="1"/>
-    <col min="8" max="12" width="8.88671875" style="15" customWidth="1"/>
+    <col min="2" max="11" width="10.77734375" style="15" customWidth="1"/>
+    <col min="12" max="12" width="16.77734375" style="15" customWidth="1"/>
     <col min="13" max="16384" width="8.88671875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="29.4" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:11" ht="29.4" x14ac:dyDescent="0.65">
       <c r="A1" s="25" t="s">
         <v>1961</v>
       </c>
@@ -35286,7 +35664,7 @@
       <c r="I1" s="25"/>
       <c r="J1" s="25"/>
     </row>
-    <row r="2" spans="1:10" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>1962</v>
       </c>
@@ -35300,7 +35678,7 @@
       <c r="I2" s="26"/>
       <c r="J2" s="26"/>
     </row>
-    <row r="3" spans="1:10" ht="33.450000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" ht="33.450000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="46" t="s">
         <v>1963</v>
       </c>
@@ -35309,8 +35687,13 @@
       <c r="D3" s="46"/>
       <c r="E3" s="46"/>
       <c r="F3" s="46"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>1964</v>
       </c>
@@ -35329,8 +35712,23 @@
       <c r="F4" s="18" t="s">
         <v>1944</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G4" s="18" t="s">
+        <v>1945</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>1946</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>1947</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>1948</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20">
         <v>44869.709258287039</v>
       </c>
@@ -35347,18 +35745,28 @@
         <v>147</v>
       </c>
       <c r="F5" s="19"/>
-    </row>
-    <row r="6" spans="1:10" ht="33.450000000000003" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="48" t="s">
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+    </row>
+    <row r="6" spans="1:11" ht="33.450000000000003" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="47" t="s">
         <v>1965</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-    </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+    </row>
+    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>1964</v>
       </c>
@@ -35377,8 +35785,23 @@
       <c r="F7" s="18" t="s">
         <v>1944</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G7" s="18" t="s">
+        <v>1945</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>1946</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>1947</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>1948</v>
+      </c>
+      <c r="K7" s="18" t="s">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23">
         <v>44869.709258287039</v>
       </c>
@@ -35395,8 +35818,13 @@
         <v>147</v>
       </c>
       <c r="F8" s="24"/>
-    </row>
-    <row r="9" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+    </row>
+    <row r="9" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="22">
         <v>44869.709256967595</v>
       </c>
@@ -35413,8 +35841,13 @@
         <v>147</v>
       </c>
       <c r="F9" s="21"/>
-    </row>
-    <row r="10" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+    </row>
+    <row r="10" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="22">
         <v>44869.709255682872</v>
       </c>
@@ -35431,8 +35864,13 @@
         <v>147</v>
       </c>
       <c r="F10" s="21"/>
-    </row>
-    <row r="11" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+    </row>
+    <row r="11" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="22">
         <v>44869.709254317131</v>
       </c>
@@ -35449,8 +35887,13 @@
         <v>147</v>
       </c>
       <c r="F11" s="21"/>
-    </row>
-    <row r="12" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+    </row>
+    <row r="12" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="22">
         <v>44869.709253009256</v>
       </c>
@@ -35467,8 +35910,13 @@
         <v>147</v>
       </c>
       <c r="F12" s="21"/>
-    </row>
-    <row r="13" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+    </row>
+    <row r="13" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="22">
         <v>44869.709251689812</v>
       </c>
@@ -35485,8 +35933,13 @@
         <v>147</v>
       </c>
       <c r="F13" s="21"/>
-    </row>
-    <row r="14" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+    </row>
+    <row r="14" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="22">
         <v>44869.709250405096</v>
       </c>
@@ -35503,8 +35956,13 @@
         <v>147</v>
       </c>
       <c r="F14" s="21"/>
-    </row>
-    <row r="15" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+    </row>
+    <row r="15" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="22">
         <v>44869.709249120373</v>
       </c>
@@ -35521,8 +35979,13 @@
         <v>147</v>
       </c>
       <c r="F15" s="21"/>
-    </row>
-    <row r="16" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+    </row>
+    <row r="16" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="22">
         <v>44869.70924773148</v>
       </c>
@@ -35539,8 +36002,13 @@
         <v>147</v>
       </c>
       <c r="F16" s="21"/>
-    </row>
-    <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+    </row>
+    <row r="17" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="22">
         <v>44869.709246446757</v>
       </c>
@@ -35557,8 +36025,13 @@
         <v>147</v>
       </c>
       <c r="F17" s="21"/>
-    </row>
-    <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+    </row>
+    <row r="18" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="22">
         <v>44869.709245162034</v>
       </c>
@@ -35575,8 +36048,13 @@
         <v>147</v>
       </c>
       <c r="F18" s="21"/>
-    </row>
-    <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+    </row>
+    <row r="19" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="22">
         <v>44869.70924384259</v>
       </c>
@@ -35593,8 +36071,13 @@
         <v>147</v>
       </c>
       <c r="F19" s="21"/>
-    </row>
-    <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+    </row>
+    <row r="20" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="22">
         <v>44869.709242557874</v>
       </c>
@@ -35611,8 +36094,13 @@
         <v>147</v>
       </c>
       <c r="F20" s="21"/>
-    </row>
-    <row r="21" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+    </row>
+    <row r="21" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="22">
         <v>44869.709241203702</v>
       </c>
@@ -35629,8 +36117,13 @@
         <v>147</v>
       </c>
       <c r="F21" s="21"/>
-    </row>
-    <row r="22" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+    </row>
+    <row r="22" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="22">
         <v>44869.709239884258</v>
       </c>
@@ -35647,8 +36140,13 @@
         <v>147</v>
       </c>
       <c r="F22" s="21"/>
-    </row>
-    <row r="23" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+    </row>
+    <row r="23" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="22">
         <v>44869.709238599535</v>
       </c>
@@ -35665,8 +36163,13 @@
         <v>147</v>
       </c>
       <c r="F23" s="21"/>
-    </row>
-    <row r="24" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+    </row>
+    <row r="24" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="22">
         <v>44869.709237314812</v>
       </c>
@@ -35683,8 +36186,13 @@
         <v>147</v>
       </c>
       <c r="F24" s="21"/>
-    </row>
-    <row r="25" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+    </row>
+    <row r="25" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="22">
         <v>44869.70923601852</v>
       </c>
@@ -35701,8 +36209,13 @@
         <v>147</v>
       </c>
       <c r="F25" s="21"/>
-    </row>
-    <row r="26" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+    </row>
+    <row r="26" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="22">
         <v>44869.709234629627</v>
       </c>
@@ -35719,8 +36232,13 @@
         <v>147</v>
       </c>
       <c r="F26" s="21"/>
-    </row>
-    <row r="27" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+    </row>
+    <row r="27" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="22">
         <v>44869.709233379632</v>
       </c>
@@ -35737,8 +36255,13 @@
         <v>147</v>
       </c>
       <c r="F27" s="21"/>
-    </row>
-    <row r="28" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+    </row>
+    <row r="28" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="22">
         <v>44869.709232060188</v>
       </c>
@@ -35755,8 +36278,13 @@
         <v>147</v>
       </c>
       <c r="F28" s="21"/>
-    </row>
-    <row r="29" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+    </row>
+    <row r="29" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="22">
         <v>44869.709230775465</v>
       </c>
@@ -35773,8 +36301,13 @@
         <v>147</v>
       </c>
       <c r="F29" s="21"/>
-    </row>
-    <row r="30" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+    </row>
+    <row r="30" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="22">
         <v>44869.709229386572</v>
       </c>
@@ -35791,8 +36324,13 @@
         <v>147</v>
       </c>
       <c r="F30" s="21"/>
-    </row>
-    <row r="31" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+    </row>
+    <row r="31" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="22">
         <v>44869.709228101849</v>
       </c>
@@ -35809,8 +36347,13 @@
         <v>147</v>
       </c>
       <c r="F31" s="21"/>
-    </row>
-    <row r="32" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+    </row>
+    <row r="32" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="22">
         <v>44869.709226817133</v>
       </c>
@@ -35827,8 +36370,13 @@
         <v>147</v>
       </c>
       <c r="F32" s="21"/>
-    </row>
-    <row r="33" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+    </row>
+    <row r="33" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="22">
         <v>44869.70922553241</v>
       </c>
@@ -35845,8 +36393,13 @@
         <v>147</v>
       </c>
       <c r="F33" s="21"/>
-    </row>
-    <row r="34" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+    </row>
+    <row r="34" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="22">
         <v>44869.709224131948</v>
       </c>
@@ -35863,8 +36416,13 @@
         <v>147</v>
       </c>
       <c r="F34" s="21"/>
-    </row>
-    <row r="35" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+    </row>
+    <row r="35" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="22">
         <v>44869.709222824073</v>
       </c>
@@ -35881,8 +36439,13 @@
         <v>147</v>
       </c>
       <c r="F35" s="21"/>
-    </row>
-    <row r="36" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+    </row>
+    <row r="36" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="22">
         <v>44869.70922153935</v>
       </c>
@@ -35899,8 +36462,13 @@
         <v>147</v>
       </c>
       <c r="F36" s="21"/>
-    </row>
-    <row r="37" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+    </row>
+    <row r="37" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="22">
         <v>44869.709220254626</v>
       </c>
@@ -35917,95 +36485,20 @@
         <v>147</v>
       </c>
       <c r="F37" s="21"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="47"/>
-      <c r="B38" s="47"/>
-      <c r="C38" s="47"/>
-      <c r="D38" s="47"/>
-      <c r="E38" s="47"/>
-      <c r="F38" s="47"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="47"/>
-      <c r="B39" s="47"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="47"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="47"/>
-      <c r="B40" s="47"/>
-      <c r="C40" s="47"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="47"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="47"/>
-      <c r="B41" s="47"/>
-      <c r="C41" s="47"/>
-      <c r="D41" s="47"/>
-      <c r="E41" s="47"/>
-      <c r="F41" s="47"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="47"/>
-      <c r="B42" s="47"/>
-      <c r="C42" s="47"/>
-      <c r="D42" s="47"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="47"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="47"/>
-      <c r="B43" s="47"/>
-      <c r="C43" s="47"/>
-      <c r="D43" s="47"/>
-      <c r="E43" s="47"/>
-      <c r="F43" s="47"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="47"/>
-      <c r="B44" s="47"/>
-      <c r="C44" s="47"/>
-      <c r="D44" s="47"/>
-      <c r="E44" s="47"/>
-      <c r="F44" s="47"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="47"/>
-      <c r="B45" s="47"/>
-      <c r="C45" s="47"/>
-      <c r="D45" s="47"/>
-      <c r="E45" s="47"/>
-      <c r="F45" s="47"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="47"/>
-      <c r="B46" s="47"/>
-      <c r="C46" s="47"/>
-      <c r="D46" s="47"/>
-      <c r="E46" s="47"/>
-      <c r="F46" s="47"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="47"/>
-      <c r="B47" s="47"/>
-      <c r="C47" s="47"/>
-      <c r="D47" s="47"/>
-      <c r="E47" s="47"/>
-      <c r="F47" s="47"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A6:F6"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A6:K6"/>
   </mergeCells>
-  <dataValidations count="12">
+  <dataValidations count="22">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Time_x000d__x000a__x000d__x000a_TBL_CUR[TIME]" sqref="A5" xr:uid="{42850B1C-0284-44D7-AFED-A831C17B6591}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_CUR[CH1]" sqref="B5" xr:uid="{E5C2D926-1A45-48F9-BEDA-C71F5DA277C2}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_CUR[CH2]" sqref="C5" xr:uid="{7083C6EF-F413-41E0-A414-AE429382DCE9}"/>
@@ -36018,6 +36511,16 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH3]" sqref="D8:D37" xr:uid="{55AAEEF5-0D5D-4B9C-BCCD-F591985A00AE}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH4]" sqref="E8:E37" xr:uid="{3FE4AFF1-5F12-42A4-AEED-C92A074B53B3}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH5]" sqref="F8:F37" xr:uid="{7E88CA74-D149-4D52-A8C5-52B18A8E8F55}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_CUR[CH6]" sqref="G5" xr:uid="{743F382B-4F6D-4D0C-8E6D-9FAB242659F2}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_CUR[CH7]" sqref="H5" xr:uid="{1507A489-8ECA-4EF5-B147-3F252B48669D}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_CUR[CH8]" sqref="I5" xr:uid="{93BA86BE-E906-4231-BEC1-8231B49077ED}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_CUR[CH9]" sqref="J5" xr:uid="{03A329FC-D9B6-4F66-91AB-6F216B4109CA}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_CUR[CH10]" sqref="K5" xr:uid="{904BC9C9-A447-41D1-B094-5C8FD43A0BAE}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH6]" sqref="G8:G37" xr:uid="{23FE688F-B43B-4F37-9575-9E3B0261B07E}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH7]" sqref="H8:H37" xr:uid="{9DEA91AE-7C2F-4831-A914-BF4938F702AA}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH8]" sqref="I8:I37" xr:uid="{BB9599E7-F2DA-43B5-AD50-CCE523996DCD}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH9]" sqref="J8:J37" xr:uid="{6090D667-7D8F-48BD-A516-D434402D17B5}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH10]" sqref="K8:K37" xr:uid="{DC911779-B05B-4F41-9F33-FACF4E258C78}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -36079,10 +36582,10 @@
       <c r="D4" s="45" t="s">
         <v>1943</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="45" t="s">
         <v>1944</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="16" t="s">
         <v>1945</v>
       </c>
       <c r="G4" s="17" t="s">
@@ -36162,7 +36665,7 @@
         <v>150</v>
       </c>
       <c r="C4" s="13">
-        <v>15</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="4.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -36186,7 +36689,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="13">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="4.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -36217,19 +36720,19 @@
     <mergeCell ref="A13:E13"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value must be from 10 to 1000" prompt="Minimum duration between data readings, in milliseconds. 10 to 1000" sqref="C4" xr:uid="{F8AC74C0-69B1-4832-A146-E988016CA813}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value must be from 10 to 1000" prompt="Minimum duration between data readings, in milliseconds. 10 to 1000" sqref="C4" xr:uid="{823CFBAD-D91D-4A70-A0FA-9CDF0EBEBFAA}">
       <formula1>10</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value must be from 1 to 1000000" prompt="Number of historical data rows to keep. 1 to 1000000" sqref="C6" xr:uid="{855DA42E-1BFC-40E8-8627-936BF0FE56E5}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value must be from 1 to 1000000" prompt="Number of historical data rows to keep. 1 to 1000000" sqref="C6" xr:uid="{B2730F79-8BC5-4291-9845-8AB8B848FF4F}">
       <formula1>1</formula1>
       <formula2>1000000</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value must be from 1 to 1000" prompt="Number of data columns to read. 1 to 1000" sqref="C8" xr:uid="{F7EBE1A5-4786-4D1A-914D-ABE5AF9EA52C}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value must be from 1 to 1000" prompt="Number of data columns to read. 1 to 1000" sqref="C8" xr:uid="{87437317-36BE-4503-8F91-3B812724B94F}">
       <formula1>1</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" sqref="C10" xr:uid="{318076FB-9039-4889-A381-0AC16A7B5914}">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" sqref="C10" xr:uid="{214D02D8-A5F1-4657-97D2-72C2E0125AC3}">
       <formula1>"Newest first,Newest last"</formula1>
     </dataValidation>
   </dataValidations>
@@ -36239,7 +36742,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9978F1EA-DDE4-48E0-A0B6-999E9E8C8CF4}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:G1"/>
@@ -36402,25 +36905,91 @@
         <v>115200</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="36"/>
-      <c r="C10" s="8" t="s">
+    <row r="10" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="41"/>
+      <c r="C10" s="6" t="s">
         <v>1944</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="7" t="s">
         <v>1944</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="10" t="s">
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="5" t="s">
         <v>1940</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="41"/>
+      <c r="C11" s="6" t="s">
+        <v>1945</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>1945</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="5" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="41"/>
+      <c r="C12" s="6" t="s">
+        <v>1946</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>1946</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="5" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="41"/>
+      <c r="C13" s="6" t="s">
+        <v>1947</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>1947</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="5" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="41"/>
+      <c r="C14" s="6" t="s">
+        <v>1948</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>1948</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="5" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="36"/>
+      <c r="C15" s="8" t="s">
+        <v>1949</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>1949</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="10" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="I4:J4"/>
@@ -36431,7 +37000,7 @@
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="B5:B15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sensors_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26FFD7A5-C424-49F8-911E-4D545996D0A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51DA0497-FE78-487A-9AAD-36A6A4A15703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{C756FC93-FDA1-454D-8F32-5155C651C34A}"/>
   </bookViews>
@@ -35639,7 +35639,7 @@
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:F8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -35730,19 +35730,19 @@
     </row>
     <row r="5" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20">
-        <v>44869.709258287039</v>
+        <v>44869.714467696758</v>
       </c>
       <c r="B5" s="19">
-        <v>1268</v>
+        <v>1279</v>
       </c>
       <c r="C5" s="19">
-        <v>20.18</v>
+        <v>0</v>
       </c>
       <c r="D5" s="19">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="E5" s="19">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
@@ -35803,19 +35803,19 @@
     </row>
     <row r="8" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23">
-        <v>44869.709258287039</v>
+        <v>44869.714467696758</v>
       </c>
       <c r="B8" s="24">
-        <v>1268</v>
+        <v>1279</v>
       </c>
       <c r="C8" s="24">
-        <v>20.18</v>
+        <v>0</v>
       </c>
       <c r="D8" s="24">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="E8" s="24">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="F8" s="24"/>
       <c r="G8" s="24"/>
@@ -35826,19 +35826,19 @@
     </row>
     <row r="9" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="22">
-        <v>44869.709256967595</v>
+        <v>44869.714466597223</v>
       </c>
       <c r="B9" s="21">
-        <v>1275</v>
+        <v>1288</v>
       </c>
       <c r="C9" s="21">
-        <v>20.18</v>
+        <v>0</v>
       </c>
       <c r="D9" s="21">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="E9" s="21">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
@@ -35849,19 +35849,19 @@
     </row>
     <row r="10" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="22">
-        <v>44869.709255682872</v>
+        <v>44869.714465486111</v>
       </c>
       <c r="B10" s="21">
-        <v>1286</v>
+        <v>1272</v>
       </c>
       <c r="C10" s="21">
-        <v>20.18</v>
+        <v>0</v>
       </c>
       <c r="D10" s="21">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="E10" s="21">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
@@ -35872,19 +35872,19 @@
     </row>
     <row r="11" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="22">
-        <v>44869.709254317131</v>
+        <v>44869.714464409721</v>
       </c>
       <c r="B11" s="21">
-        <v>1265</v>
+        <v>1294</v>
       </c>
       <c r="C11" s="21">
-        <v>20.18</v>
+        <v>0</v>
       </c>
       <c r="D11" s="21">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="E11" s="21">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
@@ -35895,19 +35895,19 @@
     </row>
     <row r="12" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="22">
-        <v>44869.709253009256</v>
+        <v>44869.71446333333</v>
       </c>
       <c r="B12" s="21">
-        <v>1276</v>
+        <v>1284</v>
       </c>
       <c r="C12" s="21">
-        <v>20.18</v>
+        <v>0</v>
       </c>
       <c r="D12" s="21">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="E12" s="21">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
@@ -35918,19 +35918,19 @@
     </row>
     <row r="13" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="22">
-        <v>44869.709251689812</v>
+        <v>44869.714462222226</v>
       </c>
       <c r="B13" s="21">
-        <v>1266</v>
+        <v>1285</v>
       </c>
       <c r="C13" s="21">
-        <v>20.18</v>
+        <v>0</v>
       </c>
       <c r="D13" s="21">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="E13" s="21">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
@@ -35941,19 +35941,19 @@
     </row>
     <row r="14" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="22">
-        <v>44869.709250405096</v>
+        <v>44869.714461099538</v>
       </c>
       <c r="B14" s="21">
-        <v>1263</v>
+        <v>1292</v>
       </c>
       <c r="C14" s="21">
-        <v>20.18</v>
+        <v>0</v>
       </c>
       <c r="D14" s="21">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="E14" s="21">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
@@ -35964,19 +35964,19 @@
     </row>
     <row r="15" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="22">
-        <v>44869.709249120373</v>
+        <v>44869.714460034724</v>
       </c>
       <c r="B15" s="21">
-        <v>1278</v>
+        <v>1281</v>
       </c>
       <c r="C15" s="21">
-        <v>20.18</v>
+        <v>0</v>
       </c>
       <c r="D15" s="21">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="E15" s="21">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
@@ -35987,19 +35987,19 @@
     </row>
     <row r="16" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="22">
-        <v>44869.70924773148</v>
+        <v>44869.714458958333</v>
       </c>
       <c r="B16" s="21">
-        <v>1262</v>
+        <v>1298</v>
       </c>
       <c r="C16" s="21">
-        <v>20.18</v>
+        <v>0</v>
       </c>
       <c r="D16" s="21">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="E16" s="21">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="F16" s="21"/>
       <c r="G16" s="21"/>
@@ -36010,19 +36010,19 @@
     </row>
     <row r="17" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="22">
-        <v>44869.709246446757</v>
+        <v>44869.714457847222</v>
       </c>
       <c r="B17" s="21">
         <v>1270</v>
       </c>
       <c r="C17" s="21">
-        <v>20.18</v>
+        <v>0</v>
       </c>
       <c r="D17" s="21">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="E17" s="21">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="F17" s="21"/>
       <c r="G17" s="21"/>
@@ -36033,19 +36033,19 @@
     </row>
     <row r="18" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="22">
-        <v>44869.709245162034</v>
+        <v>44869.71445673611</v>
       </c>
       <c r="B18" s="21">
-        <v>1276</v>
+        <v>1292</v>
       </c>
       <c r="C18" s="21">
-        <v>20.18</v>
+        <v>0</v>
       </c>
       <c r="D18" s="21">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="E18" s="21">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
@@ -36056,19 +36056,19 @@
     </row>
     <row r="19" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="22">
-        <v>44869.70924384259</v>
+        <v>44869.71445565972</v>
       </c>
       <c r="B19" s="21">
-        <v>1275</v>
+        <v>1267</v>
       </c>
       <c r="C19" s="21">
-        <v>20.18</v>
+        <v>0</v>
       </c>
       <c r="D19" s="21">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="E19" s="21">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="F19" s="21"/>
       <c r="G19" s="21"/>
@@ -36079,19 +36079,19 @@
     </row>
     <row r="20" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="22">
-        <v>44869.709242557874</v>
+        <v>44869.714454583336</v>
       </c>
       <c r="B20" s="21">
-        <v>1266</v>
+        <v>1272</v>
       </c>
       <c r="C20" s="21">
-        <v>20.18</v>
+        <v>0</v>
       </c>
       <c r="D20" s="21">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="E20" s="21">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="F20" s="21"/>
       <c r="G20" s="21"/>
@@ -36102,19 +36102,19 @@
     </row>
     <row r="21" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="22">
-        <v>44869.709241203702</v>
+        <v>44869.714453472225</v>
       </c>
       <c r="B21" s="21">
-        <v>1283</v>
+        <v>1288</v>
       </c>
       <c r="C21" s="21">
-        <v>20.18</v>
+        <v>0</v>
       </c>
       <c r="D21" s="21">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="E21" s="21">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="F21" s="21"/>
       <c r="G21" s="21"/>
@@ -36125,19 +36125,19 @@
     </row>
     <row r="22" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="22">
-        <v>44869.709239884258</v>
+        <v>44869.714452395834</v>
       </c>
       <c r="B22" s="21">
-        <v>1263</v>
+        <v>1269</v>
       </c>
       <c r="C22" s="21">
-        <v>20.18</v>
+        <v>0</v>
       </c>
       <c r="D22" s="21">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="E22" s="21">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="F22" s="21"/>
       <c r="G22" s="21"/>
@@ -36148,19 +36148,19 @@
     </row>
     <row r="23" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="22">
-        <v>44869.709238599535</v>
+        <v>44869.714451319443</v>
       </c>
       <c r="B23" s="21">
-        <v>1276</v>
+        <v>1288</v>
       </c>
       <c r="C23" s="21">
-        <v>20.18</v>
+        <v>0</v>
       </c>
       <c r="D23" s="21">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="E23" s="21">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="F23" s="21"/>
       <c r="G23" s="21"/>
@@ -36171,19 +36171,19 @@
     </row>
     <row r="24" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="22">
-        <v>44869.709237314812</v>
+        <v>44869.714450208332</v>
       </c>
       <c r="B24" s="21">
-        <v>1295</v>
+        <v>1283</v>
       </c>
       <c r="C24" s="21">
-        <v>20.18</v>
+        <v>0</v>
       </c>
       <c r="D24" s="21">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="E24" s="21">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="F24" s="21"/>
       <c r="G24" s="21"/>
@@ -36194,19 +36194,19 @@
     </row>
     <row r="25" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="22">
-        <v>44869.70923601852</v>
+        <v>44869.71444909722</v>
       </c>
       <c r="B25" s="21">
-        <v>1256</v>
+        <v>1280</v>
       </c>
       <c r="C25" s="21">
-        <v>20.18</v>
+        <v>0</v>
       </c>
       <c r="D25" s="21">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="E25" s="21">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="F25" s="21"/>
       <c r="G25" s="21"/>
@@ -36217,19 +36217,19 @@
     </row>
     <row r="26" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="22">
-        <v>44869.709234629627</v>
+        <v>44869.71444802083</v>
       </c>
       <c r="B26" s="21">
-        <v>1266</v>
+        <v>1291</v>
       </c>
       <c r="C26" s="21">
-        <v>20.18</v>
+        <v>0</v>
       </c>
       <c r="D26" s="21">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="E26" s="21">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="F26" s="21"/>
       <c r="G26" s="21"/>
@@ -36240,19 +36240,19 @@
     </row>
     <row r="27" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="22">
-        <v>44869.709233379632</v>
+        <v>44869.714446944447</v>
       </c>
       <c r="B27" s="21">
-        <v>1278</v>
+        <v>1294</v>
       </c>
       <c r="C27" s="21">
-        <v>20.18</v>
+        <v>0</v>
       </c>
       <c r="D27" s="21">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="E27" s="21">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
@@ -36263,19 +36263,19 @@
     </row>
     <row r="28" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="22">
-        <v>44869.709232060188</v>
+        <v>44869.714445833335</v>
       </c>
       <c r="B28" s="21">
-        <v>1258</v>
+        <v>1285</v>
       </c>
       <c r="C28" s="21">
-        <v>20.18</v>
+        <v>0</v>
       </c>
       <c r="D28" s="21">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="E28" s="21">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="F28" s="21"/>
       <c r="G28" s="21"/>
@@ -36286,19 +36286,19 @@
     </row>
     <row r="29" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="22">
-        <v>44869.709230775465</v>
+        <v>44869.714444722224</v>
       </c>
       <c r="B29" s="21">
-        <v>1274</v>
+        <v>1301</v>
       </c>
       <c r="C29" s="21">
-        <v>20.18</v>
+        <v>0</v>
       </c>
       <c r="D29" s="21">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="E29" s="21">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="F29" s="21"/>
       <c r="G29" s="21"/>
@@ -36309,19 +36309,19 @@
     </row>
     <row r="30" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="22">
-        <v>44869.709229386572</v>
+        <v>44869.714443645833</v>
       </c>
       <c r="B30" s="21">
-        <v>1268</v>
+        <v>1282</v>
       </c>
       <c r="C30" s="21">
-        <v>20.18</v>
+        <v>0</v>
       </c>
       <c r="D30" s="21">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="E30" s="21">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="F30" s="21"/>
       <c r="G30" s="21"/>
@@ -36332,19 +36332,19 @@
     </row>
     <row r="31" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="22">
-        <v>44869.709228101849</v>
+        <v>44869.714442557874</v>
       </c>
       <c r="B31" s="21">
-        <v>1265</v>
+        <v>1296</v>
       </c>
       <c r="C31" s="21">
-        <v>20.18</v>
+        <v>0</v>
       </c>
       <c r="D31" s="21">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="E31" s="21">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
@@ -36355,19 +36355,19 @@
     </row>
     <row r="32" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="22">
-        <v>44869.709226817133</v>
+        <v>44869.714441446762</v>
       </c>
       <c r="B32" s="21">
-        <v>1262</v>
+        <v>1272</v>
       </c>
       <c r="C32" s="21">
-        <v>20.18</v>
+        <v>0</v>
       </c>
       <c r="D32" s="21">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="E32" s="21">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="F32" s="21"/>
       <c r="G32" s="21"/>
@@ -36378,19 +36378,19 @@
     </row>
     <row r="33" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="22">
-        <v>44869.70922553241</v>
+        <v>44869.714440347219</v>
       </c>
       <c r="B33" s="21">
-        <v>1273</v>
+        <v>1286</v>
       </c>
       <c r="C33" s="21">
-        <v>20.18</v>
+        <v>0</v>
       </c>
       <c r="D33" s="21">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="E33" s="21">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="F33" s="21"/>
       <c r="G33" s="21"/>
@@ -36401,19 +36401,19 @@
     </row>
     <row r="34" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="22">
-        <v>44869.709224131948</v>
+        <v>44869.71443925926</v>
       </c>
       <c r="B34" s="21">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="C34" s="21">
-        <v>20.18</v>
+        <v>0</v>
       </c>
       <c r="D34" s="21">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="E34" s="21">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="F34" s="21"/>
       <c r="G34" s="21"/>
@@ -36424,19 +36424,19 @@
     </row>
     <row r="35" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="22">
-        <v>44869.709222824073</v>
+        <v>44869.714438194445</v>
       </c>
       <c r="B35" s="21">
         <v>1273</v>
       </c>
       <c r="C35" s="21">
-        <v>20.18</v>
+        <v>0</v>
       </c>
       <c r="D35" s="21">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="E35" s="21">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="F35" s="21"/>
       <c r="G35" s="21"/>
@@ -36447,19 +36447,19 @@
     </row>
     <row r="36" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="22">
-        <v>44869.70922153935</v>
+        <v>44869.714437083334</v>
       </c>
       <c r="B36" s="21">
         <v>1280</v>
       </c>
       <c r="C36" s="21">
-        <v>20.18</v>
+        <v>0</v>
       </c>
       <c r="D36" s="21">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="E36" s="21">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="F36" s="21"/>
       <c r="G36" s="21"/>
@@ -36470,19 +36470,19 @@
     </row>
     <row r="37" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="22">
-        <v>44869.709220254626</v>
+        <v>44869.714436006943</v>
       </c>
       <c r="B37" s="21">
         <v>1273</v>
       </c>
       <c r="C37" s="21">
-        <v>20.18</v>
+        <v>0</v>
       </c>
       <c r="D37" s="21">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="E37" s="21">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="F37" s="21"/>
       <c r="G37" s="21"/>
